--- a/data/trans_orig/P1414-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1414-Clase-trans_orig.xlsx
@@ -756,19 +756,19 @@
         <v>7874</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3108</v>
+        <v>3099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16702</v>
+        <v>16358</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02504051670623735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009885207961931472</v>
+        <v>0.009854345525034532</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05311418252105801</v>
+        <v>0.05202069006689372</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -777,19 +777,19 @@
         <v>7874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3081</v>
+        <v>3032</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18239</v>
+        <v>16846</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01047553983994736</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004098319622204495</v>
+        <v>0.004033851186113586</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02426546146034269</v>
+        <v>0.02241184863095915</v>
       </c>
     </row>
     <row r="5">
@@ -819,19 +819,19 @@
         <v>306580</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>297752</v>
+        <v>298096</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311346</v>
+        <v>311355</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9749594832937627</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9468858174789424</v>
+        <v>0.9479793099331058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9901147920380685</v>
+        <v>0.9901456544749654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>681</v>
@@ -840,19 +840,19 @@
         <v>743791</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>733426</v>
+        <v>734819</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>748584</v>
+        <v>748633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9895244601600527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9757345385396574</v>
+        <v>0.9775881513690412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9959016803777955</v>
+        <v>0.9959661488138865</v>
       </c>
     </row>
     <row r="6">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5297</v>
+        <v>4915</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002508628313864053</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01264854966913576</v>
+        <v>0.01173537085748599</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -965,19 +965,19 @@
         <v>3955</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>978</v>
+        <v>1045</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9867</v>
+        <v>9267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01170017235026607</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002894822792206413</v>
+        <v>0.003091793910536676</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02919180049278531</v>
+        <v>0.02741718759035728</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -986,19 +986,19 @@
         <v>5005</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1935</v>
+        <v>1900</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11189</v>
+        <v>11387</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006613822320653396</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002557079385414549</v>
+        <v>0.002510297234509232</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01478429257763395</v>
+        <v>0.01504601319856825</v>
       </c>
     </row>
     <row r="8">
@@ -1015,7 +1015,7 @@
         <v>417746</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>413500</v>
+        <v>413882</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>418797</v>
@@ -1024,7 +1024,7 @@
         <v>0.997491371686136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9873514503308642</v>
+        <v>0.9882646291425129</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1036,19 +1036,19 @@
         <v>334056</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>328144</v>
+        <v>328744</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337033</v>
+        <v>336966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9882998276497339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9708081995072141</v>
+        <v>0.9725828124096427</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971051772077936</v>
+        <v>0.9969082060894633</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>675</v>
@@ -1057,19 +1057,19 @@
         <v>751803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>745619</v>
+        <v>745421</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>754873</v>
+        <v>754908</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9933861776793466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.985215707422366</v>
+        <v>0.984953986801432</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9974429206145854</v>
+        <v>0.9974897027654908</v>
       </c>
     </row>
     <row r="9">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5387</v>
+        <v>4833</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001700940189567713</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008559184473401508</v>
+        <v>0.007678411016665435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1182,19 +1182,19 @@
         <v>11564</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5980</v>
+        <v>6077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19407</v>
+        <v>19732</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04445650838010314</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02298747692585061</v>
+        <v>0.02336124691868633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07460445160586929</v>
+        <v>0.07585334899962208</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1203,19 +1203,19 @@
         <v>12635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7072</v>
+        <v>7187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21100</v>
+        <v>21206</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01420395123837421</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007949635308190406</v>
+        <v>0.008079389924543174</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02371988770314015</v>
+        <v>0.02383870142752102</v>
       </c>
     </row>
     <row r="11">
@@ -1232,7 +1232,7 @@
         <v>628344</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624028</v>
+        <v>624582</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>629415</v>
@@ -1241,7 +1241,7 @@
         <v>0.9982990598104323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9914408155265985</v>
+        <v>0.992321588983337</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1253,19 +1253,19 @@
         <v>248565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240722</v>
+        <v>240397</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>254149</v>
+        <v>254052</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9555434916198968</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9253955483941307</v>
+        <v>0.924146651000378</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9770125230741495</v>
+        <v>0.9766387530813136</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -1274,19 +1274,19 @@
         <v>876909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>868444</v>
+        <v>868338</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>882472</v>
+        <v>882357</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9857960487616257</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9762801122968602</v>
+        <v>0.9761612985724789</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9920503646918096</v>
+        <v>0.9919206100754567</v>
       </c>
     </row>
     <row r="12">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7632</v>
+        <v>6807</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001885956374067686</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006584679117649288</v>
+        <v>0.005873529768986</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1399,19 +1399,19 @@
         <v>10415</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4510</v>
+        <v>5023</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19229</v>
+        <v>19363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01361930806649785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005897745343802905</v>
+        <v>0.006568086588911482</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02514468181483729</v>
+        <v>0.02531997469368266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1420,19 +1420,19 @@
         <v>12601</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6563</v>
+        <v>6142</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22001</v>
+        <v>22260</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006550201206939834</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003411451499970653</v>
+        <v>0.003192761475794452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01143672456362371</v>
+        <v>0.01157141375155474</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>1156823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1151377</v>
+        <v>1152202</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>1159009</v>
@@ -1458,7 +1458,7 @@
         <v>0.9981140436259324</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9934153208823507</v>
+        <v>0.9941264702310146</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1470,19 +1470,19 @@
         <v>754307</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>745493</v>
+        <v>745359</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>760212</v>
+        <v>759699</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9863806919335022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9748553181851627</v>
+        <v>0.9746800253063175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9941022546561972</v>
+        <v>0.9934319134110886</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1782</v>
@@ -1491,19 +1491,19 @@
         <v>1911130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1901730</v>
+        <v>1901471</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1917168</v>
+        <v>1917589</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9934497987930602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9885632754363763</v>
+        <v>0.9884285862484454</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9965885485000293</v>
+        <v>0.9968072385242056</v>
       </c>
     </row>
     <row r="15">
@@ -1595,19 +1595,19 @@
         <v>3077</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8320</v>
+        <v>9014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006026018557407973</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0</v>
+        <v>0.001886974643178342</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01629544921073595</v>
+        <v>0.01765456877376338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -1616,19 +1616,19 @@
         <v>30556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20681</v>
+        <v>20616</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43844</v>
+        <v>42369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04019193280033757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02720288490455342</v>
+        <v>0.02711759345191423</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05767146192376712</v>
+        <v>0.05573024545007763</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1637,19 +1637,19 @@
         <v>33633</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22963</v>
+        <v>23578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45742</v>
+        <v>47430</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02646482845543852</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01806942827269858</v>
+        <v>0.01855280435860783</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03599306395115707</v>
+        <v>0.03732184438145836</v>
       </c>
     </row>
     <row r="17">
@@ -1666,19 +1666,19 @@
         <v>507519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>502276</v>
+        <v>501582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>510596</v>
+        <v>509633</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9939739814425921</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9837045507892639</v>
+        <v>0.9823454312262367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1</v>
+        <v>0.9981130253568217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>673</v>
@@ -1687,19 +1687,19 @@
         <v>729690</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>716402</v>
+        <v>717877</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>739565</v>
+        <v>739630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9598080671996624</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9423285380762328</v>
+        <v>0.9442697545499219</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9727971150954466</v>
+        <v>0.9728824065480856</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1157</v>
@@ -1708,19 +1708,19 @@
         <v>1237210</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1225101</v>
+        <v>1223413</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1247880</v>
+        <v>1247265</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9735351715445615</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9640069360488426</v>
+        <v>0.9626781556185419</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9819305717273012</v>
+        <v>0.9814471956413932</v>
       </c>
     </row>
     <row r="18">
@@ -1825,19 +1825,19 @@
         <v>27349</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18357</v>
+        <v>18389</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39332</v>
+        <v>39373</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02467457819525582</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01656155211932865</v>
+        <v>0.01659070111433456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03548553956040584</v>
+        <v>0.03552256940198617</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1846,19 +1846,19 @@
         <v>27349</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18297</v>
+        <v>17296</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41251</v>
+        <v>39940</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01988627094043469</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01330446640952918</v>
+        <v>0.01257627459104903</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02999494109048261</v>
+        <v>0.0290415351476689</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>1081036</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1069053</v>
+        <v>1069012</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1090028</v>
+        <v>1089996</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9753254218047441</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9645144604395942</v>
+        <v>0.9644774305980138</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9834384478806714</v>
+        <v>0.9834092988856654</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1282</v>
@@ -1909,19 +1909,19 @@
         <v>1347918</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1334016</v>
+        <v>1335327</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1356970</v>
+        <v>1357971</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9801137290595653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.970005058909518</v>
+        <v>0.9709584648523311</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9866955335904709</v>
+        <v>0.987423725408951</v>
       </c>
     </row>
     <row r="21">
@@ -2013,19 +2013,19 @@
         <v>7384</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3168</v>
+        <v>3095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14767</v>
+        <v>14902</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002157831881849047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0009258480780696582</v>
+        <v>0.0009045197318881265</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.004315300711118217</v>
+        <v>0.004354862400877699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -2034,19 +2034,19 @@
         <v>91713</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74189</v>
+        <v>74511</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>113362</v>
+        <v>112032</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02586417290848937</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02092225489687522</v>
+        <v>0.02101293270363755</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03196953292894861</v>
+        <v>0.03159439520554899</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>92</v>
@@ -2055,19 +2055,19 @@
         <v>99097</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>79584</v>
+        <v>80798</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>120543</v>
+        <v>120161</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01422200615380785</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01142156080134704</v>
+        <v>0.01159577500978478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01729988567615112</v>
+        <v>0.01724507790545713</v>
       </c>
     </row>
     <row r="23">
@@ -2084,19 +2084,19 @@
         <v>3414526</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3407143</v>
+        <v>3407008</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3418742</v>
+        <v>3418815</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.997842168118151</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9956846992888814</v>
+        <v>0.9956451375991221</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9990741519219304</v>
+        <v>0.9990954802681118</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3202</v>
@@ -2105,19 +2105,19 @@
         <v>3454235</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3432586</v>
+        <v>3433916</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3471759</v>
+        <v>3471437</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9741358270915106</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9680304670710514</v>
+        <v>0.9684056047944511</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9790777451031248</v>
+        <v>0.9789870672963626</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6400</v>
@@ -2126,19 +2126,19 @@
         <v>6868761</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6847315</v>
+        <v>6847697</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6888274</v>
+        <v>6887060</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9857779938461921</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9827001143238489</v>
+        <v>0.9827549220945427</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9885784391986531</v>
+        <v>0.9884042249902152</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8540</v>
+        <v>9959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006079040115082002</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01990187750936585</v>
+        <v>0.02320944124671334</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2493,19 +2493,19 @@
         <v>5417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2130</v>
+        <v>2098</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11590</v>
+        <v>12127</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01560953777809028</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006136064491792009</v>
+        <v>0.006045814054865182</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03339530893152161</v>
+        <v>0.03494344778756363</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2514,19 +2514,19 @@
         <v>8026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3234</v>
+        <v>3678</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16105</v>
+        <v>16379</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01034061212330182</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004167087438378802</v>
+        <v>0.004739099459679902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02074934901917577</v>
+        <v>0.02110235922195396</v>
       </c>
     </row>
     <row r="5">
@@ -2543,7 +2543,7 @@
         <v>426484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>420552</v>
+        <v>419133</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>429092</v>
@@ -2552,7 +2552,7 @@
         <v>0.993920959884918</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9800981224906341</v>
+        <v>0.9767905587532866</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2564,19 +2564,19 @@
         <v>341638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>335465</v>
+        <v>334928</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>344925</v>
+        <v>344957</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9843904622219097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9666046910684778</v>
+        <v>0.9650565522124364</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9938639355082081</v>
+        <v>0.9939541859451348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>721</v>
@@ -2585,19 +2585,19 @@
         <v>768121</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>760042</v>
+        <v>759768</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>772913</v>
+        <v>772469</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9896593878766982</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9792506509808242</v>
+        <v>0.9788976407780461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9958329125616212</v>
+        <v>0.9952609005403201</v>
       </c>
     </row>
     <row r="6">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7046</v>
+        <v>6702</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005865602683856198</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01867943151011161</v>
+        <v>0.01776699452330011</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2710,19 +2710,19 @@
         <v>5829</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1941</v>
+        <v>2075</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13485</v>
+        <v>13395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01565723367968255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005215076256117065</v>
+        <v>0.005574368948596496</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03622237777644303</v>
+        <v>0.03598287533949294</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2731,19 +2731,19 @@
         <v>8041</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3215</v>
+        <v>3236</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16728</v>
+        <v>16029</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01072905991260456</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004289181361416187</v>
+        <v>0.004317877243181594</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02231949618131538</v>
+        <v>0.02138642854466752</v>
       </c>
     </row>
     <row r="8">
@@ -2760,7 +2760,7 @@
         <v>375014</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>370181</v>
+        <v>370525</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -2769,7 +2769,7 @@
         <v>0.9941343973161438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9813205684898882</v>
+        <v>0.9822330054766999</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2781,19 +2781,19 @@
         <v>366444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>358788</v>
+        <v>358878</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370332</v>
+        <v>370198</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9843427663203175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9637776222235569</v>
+        <v>0.9640171246605069</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9947849237438828</v>
+        <v>0.9944256310514035</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>699</v>
@@ -2802,19 +2802,19 @@
         <v>741459</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732772</v>
+        <v>733471</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>746285</v>
+        <v>746264</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9892709400873955</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9776805038186847</v>
+        <v>0.9786135714553325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9957108186385838</v>
+        <v>0.9956821227568184</v>
       </c>
     </row>
     <row r="9">
@@ -2906,19 +2906,19 @@
         <v>2905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8293</v>
+        <v>8710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005565112947750396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001825940405707919</v>
+        <v>0.001793606324579229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01589020016455518</v>
+        <v>0.01668895226854505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2927,19 +2927,19 @@
         <v>6286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11740</v>
+        <v>12986</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03783719992083742</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01254687739273223</v>
+        <v>0.01255720520510674</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.070669389992952</v>
+        <v>0.07817051512717048</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2948,19 +2948,19 @@
         <v>9190</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4238</v>
+        <v>4268</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17245</v>
+        <v>16199</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01335703913648504</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006160022401278044</v>
+        <v>0.006202786433939197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02506413839624217</v>
+        <v>0.02354435156000227</v>
       </c>
     </row>
     <row r="11">
@@ -2977,19 +2977,19 @@
         <v>519009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>513621</v>
+        <v>513204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520961</v>
+        <v>520978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9944348870522496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9841097998354461</v>
+        <v>0.9833110477314549</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981740595942921</v>
+        <v>0.9982063936754207</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>147</v>
@@ -2998,19 +2998,19 @@
         <v>159837</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154383</v>
+        <v>153137</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164039</v>
+        <v>164037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9621628000791626</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.929330610007048</v>
+        <v>0.9218294848728295</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9874531226072677</v>
+        <v>0.9874427947948933</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>646</v>
@@ -3019,19 +3019,19 @@
         <v>678846</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>670791</v>
+        <v>671837</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>683798</v>
+        <v>683768</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.986642960863515</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9749358616037561</v>
+        <v>0.9764556484399978</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9938399775987219</v>
+        <v>0.9937972135660609</v>
       </c>
     </row>
     <row r="12">
@@ -3123,19 +3123,19 @@
         <v>5234</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2093</v>
+        <v>2006</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11609</v>
+        <v>10639</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004552940662969599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001820895105944463</v>
+        <v>0.001744784217173722</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0100981714880773</v>
+        <v>0.009253858609274968</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -3144,19 +3144,19 @@
         <v>28422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19361</v>
+        <v>18945</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39606</v>
+        <v>40969</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03441431335612809</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02344337074141723</v>
+        <v>0.0229395141900981</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04795658110889475</v>
+        <v>0.04960686896118013</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -3165,19 +3165,19 @@
         <v>33656</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22295</v>
+        <v>22984</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46651</v>
+        <v>47982</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0170366709444788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01128552398617789</v>
+        <v>0.01163457757804512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02361472987721629</v>
+        <v>0.02428826606390025</v>
       </c>
     </row>
     <row r="14">
@@ -3194,19 +3194,19 @@
         <v>1144404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1138029</v>
+        <v>1138999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1147545</v>
+        <v>1147632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9954470593370304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9899018285119233</v>
+        <v>0.990746141390725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9981791048940556</v>
+        <v>0.9982552157828263</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>772</v>
@@ -3215,19 +3215,19 @@
         <v>797454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>786270</v>
+        <v>784907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>806515</v>
+        <v>806931</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9655856866438719</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9520434188911052</v>
+        <v>0.9503931310388198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9765566292585828</v>
+        <v>0.9770604858099019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1870</v>
@@ -3236,19 +3236,19 @@
         <v>1941858</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1928863</v>
+        <v>1927532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1953219</v>
+        <v>1952530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9829633290555212</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.976385270122784</v>
+        <v>0.9757117339360998</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9887144760138221</v>
+        <v>0.988365422421955</v>
       </c>
     </row>
     <row r="15">
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5526</v>
+        <v>5493</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.001752742203314405</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.008902069630534155</v>
+        <v>0.008848989766872751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -3361,19 +3361,19 @@
         <v>48847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36946</v>
+        <v>36128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>64910</v>
+        <v>64546</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06616668993383387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05004544325868055</v>
+        <v>0.04893746388112668</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08792486222028734</v>
+        <v>0.08743198184475812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -3382,19 +3382,19 @@
         <v>49935</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37174</v>
+        <v>37271</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>65287</v>
+        <v>67421</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03674536033752931</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02735479869843232</v>
+        <v>0.02742650493514892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04804220138438511</v>
+        <v>0.04961227804227788</v>
       </c>
     </row>
     <row r="17">
@@ -3411,7 +3411,7 @@
         <v>619618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>615180</v>
+        <v>615213</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>620706</v>
@@ -3420,7 +3420,7 @@
         <v>0.9982472577966855</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9910979303694658</v>
+        <v>0.9911510102331272</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3432,19 +3432,19 @@
         <v>689397</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>673334</v>
+        <v>673698</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>701298</v>
+        <v>702116</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9338333100661661</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9120751377797127</v>
+        <v>0.9125680181552419</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9499545567413196</v>
+        <v>0.9510625361188734</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1249</v>
@@ -3453,19 +3453,19 @@
         <v>1309015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1293663</v>
+        <v>1291529</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1321776</v>
+        <v>1321679</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9632546396624707</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9519577986156149</v>
+        <v>0.9503877219577221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9726452013015676</v>
+        <v>0.9725734950648511</v>
       </c>
     </row>
     <row r="18">
@@ -3570,19 +3570,19 @@
         <v>30267</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20021</v>
+        <v>20597</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42568</v>
+        <v>42318</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02797280297607772</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01850329713903092</v>
+        <v>0.01903565804358385</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03934063487053906</v>
+        <v>0.03911011444996185</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -3591,19 +3591,19 @@
         <v>30267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19740</v>
+        <v>20949</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41903</v>
+        <v>44838</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0221062892216782</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0144175986771512</v>
+        <v>0.01530084413574731</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03060490561876617</v>
+        <v>0.03274856682949455</v>
       </c>
     </row>
     <row r="20">
@@ -3633,19 +3633,19 @@
         <v>1051758</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1039457</v>
+        <v>1039707</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1062004</v>
+        <v>1061428</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9720271970239223</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9606593651294609</v>
+        <v>0.9608898855500382</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.981496702860969</v>
+        <v>0.9809643419564161</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1237</v>
@@ -3654,19 +3654,19 @@
         <v>1338903</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1327267</v>
+        <v>1324332</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1349430</v>
+        <v>1348221</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9778937107783218</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9693950943812338</v>
+        <v>0.9672514331705054</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9855824013228488</v>
+        <v>0.9846991558642527</v>
       </c>
     </row>
     <row r="21">
@@ -3758,19 +3758,19 @@
         <v>14048</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7830</v>
+        <v>7107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24097</v>
+        <v>23141</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004149133443426695</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002312594052609952</v>
+        <v>0.002099112715213683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007117262342247921</v>
+        <v>0.006834863488913866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>115</v>
@@ -3779,19 +3779,19 @@
         <v>125068</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102843</v>
+        <v>105326</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>148222</v>
+        <v>149059</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03541405978504989</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.029120867708992</v>
+        <v>0.02982396450973604</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04197018076009302</v>
+        <v>0.04220716547204074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -3800,19 +3800,19 @@
         <v>139116</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116856</v>
+        <v>116294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163052</v>
+        <v>166111</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02011125692660409</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01689321826768993</v>
+        <v>0.01681193880667467</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02357163116526662</v>
+        <v>0.02401380393655037</v>
       </c>
     </row>
     <row r="23">
@@ -3829,19 +3829,19 @@
         <v>3371674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3361625</v>
+        <v>3362581</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3377892</v>
+        <v>3378615</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9958508665565733</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9928827376577524</v>
+        <v>0.9931651365110868</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9976874059473901</v>
+        <v>0.9979008872847863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3211</v>
@@ -3850,19 +3850,19 @@
         <v>3406528</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3383374</v>
+        <v>3382537</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3428753</v>
+        <v>3426270</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9645859402149501</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9580298192399069</v>
+        <v>0.9577928345279596</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9708791322910075</v>
+        <v>0.9701760354902643</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6422</v>
@@ -3871,19 +3871,19 @@
         <v>6778202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6754266</v>
+        <v>6751207</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6800462</v>
+        <v>6801024</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9798887430733959</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9764283688347334</v>
+        <v>0.9759861960634496</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.98310678173231</v>
+        <v>0.9831880611933252</v>
       </c>
     </row>
     <row r="24">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4828</v>
+        <v>5504</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002037501064794817</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00878806936098145</v>
+        <v>0.01001725926412388</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -4238,19 +4238,19 @@
         <v>11457</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6314</v>
+        <v>6467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19600</v>
+        <v>19359</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02352474982850467</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01296542374125155</v>
+        <v>0.01327804156745555</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04024541214199723</v>
+        <v>0.03975078359084343</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4259,19 +4259,19 @@
         <v>12576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7391</v>
+        <v>7305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20928</v>
+        <v>20637</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01213419242377362</v>
+        <v>0.01213419242377361</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007131545756237823</v>
+        <v>0.007048440042253229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02019245806644969</v>
+        <v>0.01991162463819127</v>
       </c>
     </row>
     <row r="5">
@@ -4288,7 +4288,7 @@
         <v>548309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>544600</v>
+        <v>543924</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>549428</v>
@@ -4297,7 +4297,7 @@
         <v>0.9979624989352052</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9912119306390187</v>
+        <v>0.9899827407358762</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4309,19 +4309,19 @@
         <v>475561</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>467418</v>
+        <v>467659</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>480704</v>
+        <v>480551</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9764752501714953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9597545878580027</v>
+        <v>0.9602492164091566</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9870345762587487</v>
+        <v>0.9867219584325446</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1219</v>
@@ -4330,19 +4330,19 @@
         <v>1023869</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1015517</v>
+        <v>1015808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1029054</v>
+        <v>1029140</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9878658075762264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9798075419335502</v>
+        <v>0.9800883753618088</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9928684542437622</v>
+        <v>0.9929515599577468</v>
       </c>
     </row>
     <row r="6">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3821</v>
+        <v>3489</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002295649522697934</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007916624524400444</v>
+        <v>0.007228380500259549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -4455,19 +4455,19 @@
         <v>14242</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9226</v>
+        <v>8909</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21637</v>
+        <v>21440</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0338147730581466</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02190534041832219</v>
+        <v>0.02115167696805892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05137104712280891</v>
+        <v>0.05090499049917829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -4476,19 +4476,19 @@
         <v>15350</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10251</v>
+        <v>9995</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22910</v>
+        <v>21962</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01698385108572685</v>
+        <v>0.01698385108572686</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01134157473291644</v>
+        <v>0.01105872011691314</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02534876584487596</v>
+        <v>0.02429929079144305</v>
       </c>
     </row>
     <row r="8">
@@ -4505,7 +4505,7 @@
         <v>481517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478804</v>
+        <v>479136</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>482625</v>
@@ -4514,7 +4514,7 @@
         <v>0.9977043504773021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9920833754755997</v>
+        <v>0.9927716194997405</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4526,19 +4526,19 @@
         <v>406941</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>399546</v>
+        <v>399743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>411957</v>
+        <v>412274</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9661852269418533</v>
+        <v>0.9661852269418535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9486289528771912</v>
+        <v>0.949095009500822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9780946595816778</v>
+        <v>0.9788483230319411</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1042</v>
@@ -4547,19 +4547,19 @@
         <v>888458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>880898</v>
+        <v>881846</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>893557</v>
+        <v>893813</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.983016148914273</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9746512341551241</v>
+        <v>0.9757007092085571</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9886584252670835</v>
+        <v>0.988941279883087</v>
       </c>
     </row>
     <row r="9">
@@ -4651,19 +4651,19 @@
         <v>7035</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3076</v>
+        <v>2724</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16531</v>
+        <v>15764</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01494411286776107</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006533531261300149</v>
+        <v>0.005786073836516868</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03511585453745114</v>
+        <v>0.03348830117281743</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4672,19 +4672,19 @@
         <v>11714</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7296</v>
+        <v>7476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17548</v>
+        <v>17971</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06247718614713438</v>
+        <v>0.06247718614713439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03891199315257905</v>
+        <v>0.03987354868196851</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09359088419624736</v>
+        <v>0.09584730064678464</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -4693,19 +4693,19 @@
         <v>18749</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12051</v>
+        <v>12265</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28797</v>
+        <v>28025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02848372220017052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01830821122639993</v>
+        <v>0.01863236180205325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04374868589074791</v>
+        <v>0.04257597870336534</v>
       </c>
     </row>
     <row r="11">
@@ -4722,19 +4722,19 @@
         <v>463708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>454212</v>
+        <v>454979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467667</v>
+        <v>468019</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9850558871322391</v>
+        <v>0.9850558871322389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9648841454625492</v>
+        <v>0.9665116988271829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934664687386998</v>
+        <v>0.9942139261634831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>270</v>
@@ -4743,19 +4743,19 @@
         <v>175783</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169949</v>
+        <v>169526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180201</v>
+        <v>180021</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9375228138528656</v>
+        <v>0.9375228138528655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9064091158037526</v>
+        <v>0.9041526993532155</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9610880068474208</v>
+        <v>0.9601264513180314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>751</v>
@@ -4764,19 +4764,19 @@
         <v>639492</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>629444</v>
+        <v>630216</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646190</v>
+        <v>645976</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9715162777998294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9562513141092521</v>
+        <v>0.9574240212966344</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9816917887736001</v>
+        <v>0.9813676381979466</v>
       </c>
     </row>
     <row r="12">
@@ -4868,19 +4868,19 @@
         <v>2840</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6976</v>
+        <v>7179</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002511162432678515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0007545962491471017</v>
+        <v>0.0007587364671922769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006167764767454193</v>
+        <v>0.006347741628314532</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>53</v>
@@ -4889,19 +4889,19 @@
         <v>29860</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22608</v>
+        <v>22644</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37972</v>
+        <v>39569</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03484158028446399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02637976103574043</v>
+        <v>0.02642192192128232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04430657789603362</v>
+        <v>0.04617051322849369</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -4910,19 +4910,19 @@
         <v>32700</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25090</v>
+        <v>24633</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42610</v>
+        <v>42266</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01644835872041545</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01262032096841718</v>
+        <v>0.01239035709266799</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02143295371073697</v>
+        <v>0.02126011265149921</v>
       </c>
     </row>
     <row r="14">
@@ -4939,19 +4939,19 @@
         <v>1128192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1124056</v>
+        <v>1123853</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1130179</v>
+        <v>1130174</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9974888375673215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9938322352325459</v>
+        <v>0.9936522583716849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9992454037508528</v>
+        <v>0.9992412635328077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1171</v>
@@ -4960,19 +4960,19 @@
         <v>827163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>819051</v>
+        <v>817454</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>834415</v>
+        <v>834379</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9651584197155361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9556934221039659</v>
+        <v>0.953829486771506</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9736202389642594</v>
+        <v>0.9735780780787175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2284</v>
@@ -4981,19 +4981,19 @@
         <v>1955356</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1945446</v>
+        <v>1945790</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1962966</v>
+        <v>1963423</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9835516412795846</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9785670462892629</v>
+        <v>0.9787398873485011</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.987379679031583</v>
+        <v>0.987609642907332</v>
       </c>
     </row>
     <row r="15">
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6040</v>
+        <v>5988</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002773293509013705</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0106900065280981</v>
+        <v>0.01059838544003817</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -5106,19 +5106,19 @@
         <v>45919</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36117</v>
+        <v>36441</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56922</v>
+        <v>57239</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.05565264063059446</v>
+        <v>0.05565264063059445</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0437724448680116</v>
+        <v>0.04416507029479357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06898800218130186</v>
+        <v>0.06937224812854009</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -5127,19 +5127,19 @@
         <v>47486</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37583</v>
+        <v>37367</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58289</v>
+        <v>59119</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03416016432705389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02703628313794181</v>
+        <v>0.02688046287763382</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04193172681138198</v>
+        <v>0.04252885276936057</v>
       </c>
     </row>
     <row r="17">
@@ -5156,7 +5156,7 @@
         <v>563430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>558957</v>
+        <v>559009</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>564997</v>
@@ -5165,7 +5165,7 @@
         <v>0.9972267064909864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9893099934719022</v>
+        <v>0.9894016145599619</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -5177,19 +5177,19 @@
         <v>779183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>768180</v>
+        <v>767863</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>788985</v>
+        <v>788661</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9443473593694055</v>
+        <v>0.9443473593694054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9310119978186984</v>
+        <v>0.93062775187146</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9562275551319884</v>
+        <v>0.9558349297052064</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1747</v>
@@ -5198,19 +5198,19 @@
         <v>1342613</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1331810</v>
+        <v>1330980</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1352516</v>
+        <v>1352732</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658398356729461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9580682731886185</v>
+        <v>0.9574711472306393</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9729637168620584</v>
+        <v>0.9731195371223663</v>
       </c>
     </row>
     <row r="18">
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5932</v>
+        <v>5618</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004627860045109807</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02500585822368391</v>
+        <v>0.02368379770049973</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -5323,19 +5323,19 @@
         <v>37964</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29167</v>
+        <v>29007</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47666</v>
+        <v>47881</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04521373166699394</v>
+        <v>0.04521373166699393</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03473641429906501</v>
+        <v>0.03454655014607909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05676835521035287</v>
+        <v>0.0570252388253969</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>63</v>
@@ -5344,19 +5344,19 @@
         <v>39062</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30018</v>
+        <v>30777</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48643</v>
+        <v>50506</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03627300954100431</v>
+        <v>0.0362730095410043</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02787468701318961</v>
+        <v>0.02857965768403926</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04517013826906734</v>
+        <v>0.04690064757286048</v>
       </c>
     </row>
     <row r="20">
@@ -5373,16 +5373,16 @@
         <v>236130</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231296</v>
+        <v>231610</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9953721399548903</v>
+        <v>0.99537213995489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.974994141776316</v>
+        <v>0.9763162022995004</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5394,19 +5394,19 @@
         <v>801689</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>791987</v>
+        <v>791772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>810486</v>
+        <v>810646</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9547862683330062</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9432316447896462</v>
+        <v>0.9429747611746018</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9652635857009347</v>
+        <v>0.9654534498539203</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1201</v>
@@ -5415,19 +5415,19 @@
         <v>1037819</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1028238</v>
+        <v>1026375</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1046863</v>
+        <v>1046104</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9637269904589958</v>
+        <v>0.9637269904589959</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9548298617309325</v>
+        <v>0.9530993524271395</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9721253129868104</v>
+        <v>0.9714203423159609</v>
       </c>
     </row>
     <row r="21">
@@ -5519,19 +5519,19 @@
         <v>14767</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8153</v>
+        <v>8759</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24314</v>
+        <v>26156</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004297722819996891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002372795128039339</v>
+        <v>0.002549286429603337</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007076185425840711</v>
+        <v>0.007612208416420829</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>250</v>
@@ -5540,19 +5540,19 @@
         <v>151156</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>134501</v>
+        <v>133861</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>172619</v>
+        <v>172467</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04178506480632883</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03718084282497301</v>
+        <v>0.03700392105127492</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0477180447937983</v>
+        <v>0.04767610168407333</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>266</v>
@@ -5564,16 +5564,16 @@
         <v>145791</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>188454</v>
+        <v>187152</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02352349789295999</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02066919054372057</v>
+        <v>0.0206691653103492</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0267177290466481</v>
+        <v>0.02653310855013872</v>
       </c>
     </row>
     <row r="23">
@@ -5590,19 +5590,19 @@
         <v>3421286</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3411739</v>
+        <v>3409897</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3427900</v>
+        <v>3427294</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9957022771800031</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.992923814574159</v>
+        <v>0.9923877915835794</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9976272048719608</v>
+        <v>0.9974507135703967</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4967</v>
@@ -5611,19 +5611,19 @@
         <v>3466320</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3444857</v>
+        <v>3445009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3482975</v>
+        <v>3483615</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9582149351936714</v>
+        <v>0.9582149351936713</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9522819552062015</v>
+        <v>0.9523238983159266</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9628191571750268</v>
+        <v>0.962996078948725</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8244</v>
@@ -5632,19 +5632,19 @@
         <v>6887605</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6865075</v>
+        <v>6866377</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>6907738</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.97647650210704</v>
+        <v>0.9764765021070401</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9732822709533523</v>
+        <v>0.9734668914498611</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9793308094562796</v>
+        <v>0.9793308346896505</v>
       </c>
     </row>
     <row r="24">
